--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
@@ -546,10 +546,10 @@
         <v>0.229421</v>
       </c>
       <c r="I2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N2">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O2">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P2">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q2">
-        <v>2.197428470746556</v>
+        <v>1.742762774156889</v>
       </c>
       <c r="R2">
-        <v>19.776856236719</v>
+        <v>15.684864967412</v>
       </c>
       <c r="S2">
-        <v>0.07104502010204418</v>
+        <v>0.02650503994693037</v>
       </c>
       <c r="T2">
-        <v>0.07104502010204417</v>
+        <v>0.02650503994693037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.229421</v>
       </c>
       <c r="I3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>49.155044</v>
       </c>
       <c r="O3">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P3">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q3">
         <v>1.253022149947111</v>
@@ -638,10 +638,10 @@
         <v>11.277199349524</v>
       </c>
       <c r="S3">
-        <v>0.04051143644327822</v>
+        <v>0.01905675438517655</v>
       </c>
       <c r="T3">
-        <v>0.04051143644327822</v>
+        <v>0.01905675438517655</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.229421</v>
       </c>
       <c r="I4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N4">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O4">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P4">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q4">
-        <v>0.419571421131889</v>
+        <v>0.911237142443889</v>
       </c>
       <c r="R4">
-        <v>3.776142790187</v>
+        <v>8.201134281995001</v>
       </c>
       <c r="S4">
-        <v>0.01356515602004153</v>
+        <v>0.01385867154138999</v>
       </c>
       <c r="T4">
-        <v>0.01356515602004153</v>
+        <v>0.01385867154138999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.229421</v>
       </c>
       <c r="I5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N5">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O5">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P5">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q5">
-        <v>0.0439108225228889</v>
+        <v>0.03071554625177779</v>
       </c>
       <c r="R5">
-        <v>0.3951974027060001</v>
+        <v>0.276439916266</v>
       </c>
       <c r="S5">
-        <v>0.001419680007957695</v>
+        <v>0.0004671414793037506</v>
       </c>
       <c r="T5">
-        <v>0.001419680007957695</v>
+        <v>0.0004671414793037506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.229421</v>
       </c>
       <c r="I6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N6">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O6">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P6">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q6">
-        <v>0.4380223246534444</v>
+        <v>0.5615915596913335</v>
       </c>
       <c r="R6">
-        <v>3.942200921881</v>
+        <v>5.054324037222001</v>
       </c>
       <c r="S6">
-        <v>0.01416169184773309</v>
+        <v>0.008541040091172914</v>
       </c>
       <c r="T6">
-        <v>0.01416169184773308</v>
+        <v>0.008541040091172916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H7">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I7">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J7">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N7">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O7">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P7">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q7">
-        <v>9.078447177892334</v>
+        <v>14.16989401400667</v>
       </c>
       <c r="R7">
-        <v>81.706024601031</v>
+        <v>127.52904612606</v>
       </c>
       <c r="S7">
-        <v>0.2935151113381095</v>
+        <v>0.2155047218441481</v>
       </c>
       <c r="T7">
-        <v>0.2935151113381095</v>
+        <v>0.2155047218441481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H8">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I8">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J8">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>49.155044</v>
       </c>
       <c r="O8">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P8">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q8">
-        <v>5.176730688830667</v>
+        <v>10.18795634451333</v>
       </c>
       <c r="R8">
-        <v>46.590576199476</v>
+        <v>91.69160710062002</v>
       </c>
       <c r="S8">
-        <v>0.1673687861730005</v>
+        <v>0.1549448920376121</v>
       </c>
       <c r="T8">
-        <v>0.1673687861730005</v>
+        <v>0.1549448920376121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H9">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I9">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J9">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N9">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O9">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P9">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q9">
-        <v>1.733415687840334</v>
+        <v>7.409002488191667</v>
       </c>
       <c r="R9">
-        <v>15.600741190563</v>
+        <v>66.681022393725</v>
       </c>
       <c r="S9">
-        <v>0.05604303121911221</v>
+        <v>0.1126808019016983</v>
       </c>
       <c r="T9">
-        <v>0.0560430312191122</v>
+        <v>0.1126808019016983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H10">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I10">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J10">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N10">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O10">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P10">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q10">
-        <v>0.1814129961993334</v>
+        <v>0.2497391162033334</v>
       </c>
       <c r="R10">
-        <v>1.632716965794</v>
+        <v>2.24765204583</v>
       </c>
       <c r="S10">
-        <v>0.005865260295537611</v>
+        <v>0.003798190636980258</v>
       </c>
       <c r="T10">
-        <v>0.005865260295537609</v>
+        <v>0.003798190636980258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H11">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I11">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J11">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N11">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O11">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P11">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q11">
-        <v>1.809643676707666</v>
+        <v>4.566136595290001</v>
       </c>
       <c r="R11">
-        <v>16.286793090369</v>
+        <v>41.09522935761001</v>
       </c>
       <c r="S11">
-        <v>0.05850755694703189</v>
+        <v>0.06944469703850063</v>
       </c>
       <c r="T11">
-        <v>0.05850755694703187</v>
+        <v>0.06944469703850065</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H12">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N12">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O12">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P12">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q12">
-        <v>4.341621590586223</v>
+        <v>9.555664437735112</v>
       </c>
       <c r="R12">
-        <v>39.074594315276</v>
+        <v>86.00097993961603</v>
       </c>
       <c r="S12">
-        <v>0.1403688890377733</v>
+        <v>0.1453285962939845</v>
       </c>
       <c r="T12">
-        <v>0.1403688890377733</v>
+        <v>0.1453285962939846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H13">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.155044</v>
       </c>
       <c r="O13">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P13">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q13">
-        <v>2.475688329388445</v>
+        <v>6.87038957653689</v>
       </c>
       <c r="R13">
-        <v>22.281194964496</v>
+        <v>61.83350618883201</v>
       </c>
       <c r="S13">
-        <v>0.08004143455374582</v>
+        <v>0.104489235642057</v>
       </c>
       <c r="T13">
-        <v>0.08004143455374584</v>
+        <v>0.1044892356420571</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H14">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N14">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O14">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P14">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q14">
-        <v>0.8289782193275558</v>
+        <v>4.996363524351112</v>
       </c>
       <c r="R14">
-        <v>7.460803973948001</v>
+        <v>44.96727171916001</v>
       </c>
       <c r="S14">
-        <v>0.0268016797999682</v>
+        <v>0.07598786063489231</v>
       </c>
       <c r="T14">
-        <v>0.0268016797999682</v>
+        <v>0.07598786063489232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H15">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N15">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O15">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P15">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q15">
-        <v>0.08675785249155557</v>
+        <v>0.1684150346542223</v>
       </c>
       <c r="R15">
-        <v>0.7808206724240001</v>
+        <v>1.515735311888</v>
       </c>
       <c r="S15">
-        <v>0.002804966558105386</v>
+        <v>0.002561362502899073</v>
       </c>
       <c r="T15">
-        <v>0.002804966558105386</v>
+        <v>0.002561362502899074</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H16">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N16">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O16">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P16">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q16">
-        <v>0.8654330310137778</v>
+        <v>3.079237504410667</v>
       </c>
       <c r="R16">
-        <v>7.788897279124</v>
+        <v>27.71313753969601</v>
       </c>
       <c r="S16">
-        <v>0.02798029965656083</v>
+        <v>0.04683099402325403</v>
       </c>
       <c r="T16">
-        <v>0.02798029965656083</v>
+        <v>0.04683099402325405</v>
       </c>
     </row>
   </sheetData>
